--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A896AF3-1F14-4908-BD63-1B4B6BE95914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C102BFA8-4BA0-48D6-B7B8-F11EED3A7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
+    <workbookView xWindow="15855" yWindow="1725" windowWidth="20220" windowHeight="15345" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Este dato representa la validez de la reserva, es decir, si esta se encuentra pendiente para ser confirmada o si ya está confirmada</t>
   </si>
   <si>
-    <t>No puede haber más de una reserva para la misma zona comun el mismo turno y residente</t>
-  </si>
-  <si>
     <t>Identificador</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Corresponde a cada una de las reservas que pude hacer el residente, es decir, el residente puede reservar una zona común, ejemplo: El residente 001 reserva la piscina con su respectivo turno.</t>
+  </si>
+  <si>
+    <t>solo objeto agenada y objeto residente</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -446,6 +446,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -486,72 +492,72 @@
       <sheetData sheetId="3">
         <row r="4">
           <cell r="F4" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
           </cell>
         </row>
       </sheetData>
@@ -915,17 +921,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C361087-9E97-4542-829D-B3B83CB492EF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -933,28 +939,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -971,29 +977,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5276C67-4ACF-4F34-ACBA-8F9695F1FA3D}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="130.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="162.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="145.5703125" customWidth="1"/>
+    <col min="4" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="162.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1011,120 +1017,120 @@
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="10" t="str">
+        <v>18</v>
+      </c>
+      <c r="C4" s="36" t="str">
         <f>Turno!$G$6</f>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+      <c r="D4" s="37" t="str">
         <f>Residente!$K$4</f>
         <v>Jose Zuluf-74564891</v>
       </c>
       <c r="E4" s="11" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>21/09/2024</v>
+        <v>23/09/2024</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="13" t="str">
-        <f>C4&amp;"-"&amp;D4&amp;"-"&amp;B4</f>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos-Jose Zuluf-74564891-1 invitado</v>
+        <f>C4&amp;"-"&amp;D4</f>
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos-Jose Zuluf-74564891</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="str">
+        <v>20</v>
+      </c>
+      <c r="C5" s="36" t="str">
         <f>Turno!$G$9</f>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+      <c r="D5" s="37" t="str">
         <f>Residente!$K$5</f>
         <v>Juan Aristisabal-16513516</v>
       </c>
       <c r="E5" s="11" t="str">
         <f t="shared" ref="E5:E6" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>21/09/2024</v>
+        <v>23/09/2024</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="13" t="str">
-        <f>C5&amp;"-"&amp;D5&amp;"-"&amp;B5</f>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Aristisabal-16513516-2 invitados</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G5:G10" si="1">C5&amp;"-"&amp;D5</f>
+        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos-Juan Aristisabal-16513516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="10" t="str">
+        <v>21</v>
+      </c>
+      <c r="C6" s="36" t="str">
         <f>Turno!$G$13</f>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+      </c>
+      <c r="D6" s="37" t="str">
         <f>Residente!$K$6</f>
         <v>Andres Velez-8552369</v>
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>21/09/2024</v>
+        <v>23/09/2024</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="13" t="str">
-        <f>C6&amp;"-"&amp;D6&amp;"-"&amp;B6</f>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Andres Velez-8552369-7 invitados</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural-Andres Velez-8552369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1133,9 +1139,12 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1144,9 +1153,12 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1155,9 +1167,12 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1166,7 +1181,10 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1180,6 +1198,14 @@
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{DDEDC367-5BDD-4266-8357-CD930E0CD9D2}"/>
     <hyperlink ref="A1:C1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{D7116AC3-8566-43F0-B408-2E2909DA3116}"/>
+    <hyperlink ref="C3" location="Turno!A1" display="Turno" xr:uid="{1A770CF0-CA72-44A6-9960-3FF3732118FA}"/>
+    <hyperlink ref="C4" location="Turno!A6" display="Turno!A6" xr:uid="{38F1240B-E019-4759-B322-860D57456BA0}"/>
+    <hyperlink ref="C5" location="Turno!A9" display="Turno!A9" xr:uid="{1932EA89-E1A8-45CF-8419-2ED5D086EA5C}"/>
+    <hyperlink ref="C6" location="Turno!A13" display="Turno!A13" xr:uid="{8A9019F5-D118-4AEB-B4F3-788B57F5298A}"/>
+    <hyperlink ref="D3" location="Residente!A1" display="Residente" xr:uid="{6AC758EB-7F39-4B10-A497-19B4DBC25577}"/>
+    <hyperlink ref="D4" location="Residente!A4" display="Residente!A4" xr:uid="{856CF758-E8A2-419A-B406-B8BEA297BEF6}"/>
+    <hyperlink ref="D5" location="Residente!A5" display="Residente!A5" xr:uid="{3BB0CB21-54D9-4C33-9457-3579EFBA5F25}"/>
+    <hyperlink ref="D6" location="Residente!A6" display="Residente!A6" xr:uid="{3AC7C510-D5DC-4435-942E-114F1A25FBE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1190,79 +1216,79 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="123.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="130.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="123.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="130.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15">
         <v>0.25</v>
@@ -1271,26 +1297,26 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="17" t="str">
         <f>[1]Turno!F4</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" ref="G4:G21" si="0">_xlfn.CONCAT(B4,"-",F4)</f>
-        <v>Turno 1-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Turno 1-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15">
         <v>0.33333333333333331</v>
@@ -1299,26 +1325,26 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="17" t="str">
         <f>[1]Turno!F5</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Turno 2-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15">
         <v>0.41666666666666669</v>
@@ -1327,26 +1353,26 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="17" t="str">
         <f>[1]Turno!F6</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15">
         <v>0.54166666666666696</v>
@@ -1355,23 +1381,23 @@
         <v>0.58333333333333404</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="17" t="str">
         <f>[1]Turno!F7</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 4-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 4-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="19">
         <v>0.625</v>
@@ -1380,23 +1406,23 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="21" t="str">
         <f>[1]Turno!F8</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="19">
         <v>0.70833333333333337</v>
@@ -1405,23 +1431,23 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="21" t="str">
         <f>[1]Turno!F9</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="19">
         <v>0.79166666666666663</v>
@@ -1430,23 +1456,23 @@
         <v>0.875</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="21" t="str">
         <f>[1]Turno!F10</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="23">
         <v>0.91666666666666663</v>
@@ -1455,23 +1481,23 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="25" t="str">
         <f>[1]Turno!F11</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
       </c>
       <c r="G11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 1-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>9</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23">
         <v>0.45833333333333331</v>
@@ -1480,23 +1506,23 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="25" t="str">
         <f>[1]Turno!F12</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
       </c>
       <c r="G12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="23">
         <v>0.5</v>
@@ -1505,23 +1531,23 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="25" t="str">
         <f>[1]Turno!F13</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
       </c>
       <c r="G13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="27">
         <v>0.33333333333333331</v>
@@ -1530,23 +1556,23 @@
         <v>0.375</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="29" t="str">
         <f>[1]Turno!F14</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 1-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="27">
         <v>0.375</v>
@@ -1555,23 +1581,23 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="29" t="str">
         <f>[1]Turno!F15</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 2-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="27">
         <v>0.41666666666666702</v>
@@ -1580,23 +1606,23 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="29" t="str">
         <f>[1]Turno!F16</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G16" s="13" t="str">
         <f>_xlfn.CONCAT(B16,"-",F16)</f>
-        <v>Turno 3-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Turno 3-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="27">
         <v>0.45833333333333398</v>
@@ -1605,18 +1631,18 @@
         <v>0.500000000000001</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="29" t="str">
         <f>[1]Turno!F17</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
       </c>
       <c r="G17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 4-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Turno 4-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -1630,7 +1656,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -1644,7 +1670,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -1658,7 +1684,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -1693,28 +1719,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F107DE-6D7F-46D5-A5A6-9AD6DF906ACB}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" customWidth="1"/>
+    <col min="3" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1722,84 +1748,84 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="32">
         <v>74564891</v>
@@ -1811,7 +1837,7 @@
         <v>3053456459</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="32">
         <v>789654</v>
@@ -1825,18 +1851,18 @@
         <v>Jose Zuluf-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="32">
         <v>16513516</v>
@@ -1848,7 +1874,7 @@
         <v>3015124578</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="32">
         <v>523698</v>
@@ -1862,18 +1888,18 @@
         <v>Juan Aristisabal-16513516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>65</v>
-      </c>
       <c r="D6" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="32">
         <v>8552369</v>
@@ -1885,7 +1911,7 @@
         <v>3057477830</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="32">
         <v>852339</v>
@@ -1899,7 +1925,7 @@
         <v>Andres Velez-8552369</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1917,7 +1943,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1935,7 +1961,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1953,7 +1979,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1971,24 +1997,24 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C102BFA8-4BA0-48D6-B7B8-F11EED3A7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C102BFA8-4BA0-48D6-B7B8-F11EED3A7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D2E7B8-28E8-443C-BB7D-4043810396B9}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="1725" windowWidth="20220" windowHeight="15345" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t>Nombre</t>
   </si>
@@ -195,9 +196,6 @@
     <t>Tipo de documento</t>
   </si>
   <si>
-    <t>Cédula</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento</t>
   </si>
   <si>
@@ -246,12 +244,6 @@
     <t>Tarjeta de Identidad</t>
   </si>
   <si>
-    <t>Registro Civil</t>
-  </si>
-  <si>
-    <t>Cédula de Extranjería</t>
-  </si>
-  <si>
     <t>Corresponde a la persona que puede realizar una reserva para una zona común.</t>
   </si>
   <si>
@@ -262,6 +254,117 @@
   </si>
   <si>
     <t>solo objeto agenada y objeto residente</t>
+  </si>
+  <si>
+    <t>3 invitados</t>
+  </si>
+  <si>
+    <t>0 invitados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 invitados </t>
+  </si>
+  <si>
+    <t>Número de documento</t>
+  </si>
+  <si>
+    <t>asdgf789654</t>
+  </si>
+  <si>
+    <t>Registro civil</t>
+  </si>
+  <si>
+    <t>nhf523698</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>vfdf852339</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>alejandro.perez90@mail.com</t>
+  </si>
+  <si>
+    <t>AlejPz90*</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Cédula de extranjería</t>
+  </si>
+  <si>
+    <t>maria.gomez85@mail.com</t>
+  </si>
+  <si>
+    <t>MgoMez85!</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>juan.rodriguez95@mail.com</t>
+  </si>
+  <si>
+    <t>JuanRod95#</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>camila.torres00@mail.com</t>
+  </si>
+  <si>
+    <t>Ctorres2000@</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>andres.garcia92@mail.com</t>
+  </si>
+  <si>
+    <t>Agarcia92+</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>laura.martinez93@mail.com</t>
+  </si>
+  <si>
+    <t>LauraMart93^</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>felipe.ramirez88@mail.com</t>
+  </si>
+  <si>
+    <t>FelipeRam88$</t>
   </si>
 </sst>
 </file>
@@ -439,25 +542,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,72 +593,72 @@
       <sheetData sheetId="3">
         <row r="4">
           <cell r="F4" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
           </cell>
         </row>
       </sheetData>
@@ -574,12 +675,24 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Objetos de dominio"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="ConjuntoResidencial"/>
+      <sheetName val="Zonainmueble"/>
+      <sheetName val="Inmueble"/>
       <sheetName val="Residente"/>
-      <sheetName val="Inmueble"/>
+      <sheetName val="ZonaComun"/>
+      <sheetName val="Agenda"/>
+      <sheetName val="RepetirAgenda"/>
+      <sheetName val="Turno"/>
+      <sheetName val="Reserva"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="4">
           <cell r="J4" t="str">
             <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
@@ -596,14 +709,64 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Residente"/>
+      <sheetName val="Inmueble"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>Casa '11' de Bloque2 de 2-Natural</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10" t="str">
+            <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11" t="str">
+            <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12" t="str">
+            <v>Casa '12' de Bloque3 de 3-Riogrande</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -925,13 +1088,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,28 +1102,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -977,29 +1140,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5276C67-4ACF-4F34-ACBA-8F9695F1FA3D}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="145.5703125" customWidth="1"/>
-    <col min="4" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="162.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="156.33203125" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="5" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="204.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1017,10 +1181,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,144 +1210,196 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36" t="str">
+      <c r="C4" s="10" t="str">
         <f>Turno!$G$6</f>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-      <c r="D4" s="37" t="str">
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+      </c>
+      <c r="D4" s="35" t="str">
         <f>Residente!$K$4</f>
-        <v>Jose Zuluf-74564891</v>
+        <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
       <c r="E4" s="11" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>23/09/2024</v>
+        <v>29/09/2024</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>C4&amp;"-"&amp;D4</f>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos-Jose Zuluf-74564891</v>
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="36" t="str">
+      <c r="C5" s="10" t="str">
         <f>Turno!$G$9</f>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-      <c r="D5" s="37" t="str">
+        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="D5" s="35" t="str">
         <f>Residente!$K$5</f>
-        <v>Juan Aristisabal-16513516</v>
+        <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f t="shared" ref="E5:E6" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>23/09/2024</v>
+        <f t="shared" ref="E5:E10" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
+        <v>29/09/2024</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="13" t="str">
         <f t="shared" ref="G5:G10" si="1">C5&amp;"-"&amp;D5</f>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos-Juan Aristisabal-16513516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36" t="str">
+      <c r="C6" s="10" t="str">
         <f>Turno!$G$13</f>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
-      </c>
-      <c r="D6" s="37" t="str">
+        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+      </c>
+      <c r="D6" s="35" t="str">
         <f>Residente!$K$6</f>
-        <v>Andres Velez-8552369</v>
+        <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>23/09/2024</v>
+        <v>29/09/2024</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural-Andres Velez-8552369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="37" t="str">
+        <f>Turno!$G$10</f>
+        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="D7" s="35" t="str">
+        <f>Residente!K9</f>
+        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>29/09/2024</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="37" t="str">
+        <f>Turno!G12</f>
+        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+      </c>
+      <c r="D8" s="35" t="str">
+        <f>Residente!K10</f>
+        <v>Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>29/09/2024</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="37" t="str">
+        <f>Turno!G6</f>
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+      </c>
+      <c r="D9" s="35" t="str">
+        <f>Residente!K11</f>
+        <v>Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>29/09/2024</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="str">
+        <f>Turno!$G$8</f>
+        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="D10" s="35" t="str">
+        <f>Residente!K13</f>
+        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>29/09/2024</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
   </sheetData>
@@ -1213,33 +1429,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB08A702-FD28-42AA-96CF-A0FF0C0CE614}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="123.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="130.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="123.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="130.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +1476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -1301,17 +1517,17 @@
       </c>
       <c r="F4" s="17" t="str">
         <f>[1]Turno!F4</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" ref="G4:G21" si="0">_xlfn.CONCAT(B4,"-",F4)</f>
-        <v>Turno 1-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Turno 1-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="I4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1329,17 +1545,17 @@
       </c>
       <c r="F5" s="17" t="str">
         <f>[1]Turno!F5</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="G5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Turno 2-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1357,17 +1573,17 @@
       </c>
       <c r="F6" s="17" t="str">
         <f>[1]Turno!F6</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1385,14 +1601,14 @@
       </c>
       <c r="F7" s="17" t="str">
         <f>[1]Turno!F7</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 4-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 4-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -1410,14 +1626,14 @@
       </c>
       <c r="F8" s="21" t="str">
         <f>[1]Turno!F8</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -1435,14 +1651,14 @@
       </c>
       <c r="F9" s="21" t="str">
         <f>[1]Turno!F9</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -1460,14 +1676,14 @@
       </c>
       <c r="F10" s="21" t="str">
         <f>[1]Turno!F10</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>8</v>
       </c>
@@ -1485,14 +1701,14 @@
       </c>
       <c r="F11" s="25" t="str">
         <f>[1]Turno!F11</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
       <c r="G11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 1-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>9</v>
       </c>
@@ -1510,14 +1726,14 @@
       </c>
       <c r="F12" s="25" t="str">
         <f>[1]Turno!F12</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
       <c r="G12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>10</v>
       </c>
@@ -1535,14 +1751,14 @@
       </c>
       <c r="F13" s="25" t="str">
         <f>[1]Turno!F13</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
+        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
       <c r="G13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -2-Natural</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>11</v>
       </c>
@@ -1560,14 +1776,14 @@
       </c>
       <c r="F14" s="29" t="str">
         <f>[1]Turno!F14</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 1-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>12</v>
       </c>
@@ -1585,14 +1801,14 @@
       </c>
       <c r="F15" s="29" t="str">
         <f>[1]Turno!F15</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
       <c r="G15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Turno 2-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>13</v>
       </c>
@@ -1610,14 +1826,14 @@
       </c>
       <c r="F16" s="29" t="str">
         <f>[1]Turno!F16</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
       <c r="G16" s="13" t="str">
         <f>_xlfn.CONCAT(B16,"-",F16)</f>
-        <v>Turno 3-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>Turno 3-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>14</v>
       </c>
@@ -1635,67 +1851,11 @@
       </c>
       <c r="F17" s="29" t="str">
         <f>[1]Turno!F17</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
+        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
       <c r="G17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 4-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>Turno 4-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
   </sheetData>
@@ -1717,30 +1877,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F107DE-6D7F-46D5-A5A6-9AD6DF906ACB}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.5546875" customWidth="1"/>
+    <col min="11" max="11" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1748,7 +1908,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1779,7 +1939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1793,228 +1953,395 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="31">
+        <v>74564891</v>
+      </c>
+      <c r="F4" s="32">
+        <v>36689</v>
+      </c>
+      <c r="G4" s="31">
+        <v>3053456459</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="32">
-        <v>74564891</v>
-      </c>
-      <c r="F4" s="33">
-        <v>36689</v>
-      </c>
-      <c r="G4" s="32">
-        <v>3053456459</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="32">
-        <v>789654</v>
-      </c>
-      <c r="J4" s="32" t="str">
+      <c r="I4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="31" t="str">
         <f>[2]Residente!J4</f>
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
-      <c r="K4" s="35" t="str">
-        <f>_xlfn.CONCAT(B4," ",C4,"-",E4)</f>
-        <v>Jose Zuluf-74564891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="34" t="str">
+        <f>_xlfn.CONCAT(B4," ",C4,"-",D4,"-",E4,"-",J4)</f>
+        <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="31">
+        <v>16513516</v>
+      </c>
+      <c r="F5" s="32">
+        <v>38315</v>
+      </c>
+      <c r="G5" s="31">
+        <v>3015124578</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="32">
-        <v>16513516</v>
-      </c>
-      <c r="F5" s="33">
-        <v>38315</v>
-      </c>
-      <c r="G5" s="32">
-        <v>3015124578</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="32">
-        <v>523698</v>
-      </c>
-      <c r="J5" s="32" t="str">
+      <c r="I5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="31" t="str">
         <f>[2]Residente!J5</f>
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
-      <c r="K5" s="35" t="str">
-        <f t="shared" ref="K5:K10" si="0">_xlfn.CONCAT(B5," ",C5,"-",E5)</f>
-        <v>Juan Aristisabal-16513516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="34" t="str">
+        <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
+        <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="31">
+        <v>8552369</v>
+      </c>
+      <c r="F6" s="32">
+        <v>35494</v>
+      </c>
+      <c r="G6" s="31">
+        <v>3057477830</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="32">
-        <v>8552369</v>
-      </c>
-      <c r="F6" s="33">
-        <v>35494</v>
-      </c>
-      <c r="G6" s="32">
-        <v>3057477830</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="32">
-        <v>852339</v>
+      <c r="I6" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="J6" s="30" t="str">
         <f>[2]Residente!J6</f>
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
-      <c r="K6" s="35" t="str">
+      <c r="K6" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Andres Velez-8552369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="35" t="str">
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1012345678</v>
+      </c>
+      <c r="F7" s="38">
+        <v>32944</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3102345678</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="30" t="str">
+        <f>[3]Inmueble!F10</f>
+        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="K7" s="34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="35" t="str">
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1023456789</v>
+      </c>
+      <c r="F8" s="38">
+        <v>31253</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3204567890</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="30" t="str">
+        <f>[3]Inmueble!F6</f>
+        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+      </c>
+      <c r="K8" s="34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>María Gómez-Cédula de extranjería-1023456789-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="35" t="str">
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1034567890</v>
+      </c>
+      <c r="F9" s="38">
+        <v>35013</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3156781234</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="30" t="str">
+        <f>[3]Inmueble!F12</f>
+        <v>Casa '12' de Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="K9" s="34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="35" t="str">
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4">
+        <v>900123456</v>
+      </c>
+      <c r="F10" s="38">
+        <v>36560</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3112345678</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="30" t="str">
+        <f>[3]Inmueble!F11</f>
+        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+      <c r="K10" s="34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>68</v>
+        <v>Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1045678901</v>
+      </c>
+      <c r="F11" s="38">
+        <v>33867</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3149876543</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>[3]Inmueble!F10</f>
+        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="K11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1056789012</v>
+      </c>
+      <c r="F12" s="38">
+        <v>34128</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3135678901</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>[3]Inmueble!F6</f>
+        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+      </c>
+      <c r="K12" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1067890123</v>
+      </c>
+      <c r="F13" s="38">
+        <v>32507</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3123456789</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>[3]Inmueble!F7</f>
+        <v>Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+      <c r="K13" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
   </sheetData>
@@ -2027,10 +2354,11 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{88AA08F3-FACC-48AA-A27E-09A67F98A48B}"/>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{13F5C678-FFCE-4064-B415-9483F58B90E2}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{6A223CCD-236C-41EB-86F4-0832CD864461}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{B15AC9F9-A67D-4EBA-82E8-3BEBB22AD939}"/>
+    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{543191AC-0484-47C3-988D-42E0123773ED}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{E4213ACD-8A10-4CD5-AC43-7322EDB2D498}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{B5042EE5-D4CB-421B-9431-5FD39AF1747B}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{A1D58053-C134-467E-A73F-BCB13016AF33}"/>
+    <hyperlink ref="J3" location="Inmueble!A1" display=" inmueble" xr:uid="{6C3241EF-8A5D-4585-A3FE-1CC29EDBB560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C102BFA8-4BA0-48D6-B7B8-F11EED3A7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D2E7B8-28E8-443C-BB7D-4043810396B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575913D-7C4C-4E9B-94C5-514B016DDD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
+    <workbookView xWindow="2595" yWindow="3945" windowWidth="15855" windowHeight="15345" activeTab="3" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>Nombre</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Es un dato que hace que cada reserva sea única.</t>
   </si>
   <si>
-    <t>Este dato representa la fecha de creación en la que se realiza una reserva.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Es un dato que representa el turno que va a tener en cuenta la reserva. </t>
   </si>
   <si>
@@ -85,15 +82,9 @@
     <t>Identificador</t>
   </si>
   <si>
-    <t>NumeroInvitados</t>
-  </si>
-  <si>
     <t>fechaReserva</t>
   </si>
   <si>
-    <t>Estado reserva</t>
-  </si>
-  <si>
     <t>Combinación única</t>
   </si>
   <si>
@@ -130,18 +121,6 @@
     <t>Un turno especifico no puede repetirse dentro de la misma agenda</t>
   </si>
   <si>
-    <t>Número de turno</t>
-  </si>
-  <si>
-    <t>Hora inicio</t>
-  </si>
-  <si>
-    <t>Hora finalización</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>Turno 1</t>
   </si>
   <si>
@@ -172,9 +151,6 @@
     <t>Es un dato que representa el apellido de un residente</t>
   </si>
   <si>
-    <t>Es un dato que representa la cédula o identificador único legal de un residente.</t>
-  </si>
-  <si>
     <t>Es un dato que representa la fecha de nacimiento que tiene un residente.</t>
   </si>
   <si>
@@ -184,27 +160,9 @@
     <t>Este dato representa el correo electrónico de un residente</t>
   </si>
   <si>
-    <t>Este dato representa el conjunto residencial al cual pertenece el residente.</t>
-  </si>
-  <si>
     <t>No puede haber mas de un residente con la misma cédula</t>
   </si>
   <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Tipo de documento</t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Número de contacto</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>contraseña</t>
   </si>
   <si>
@@ -265,9 +223,6 @@
     <t xml:space="preserve">4 invitados </t>
   </si>
   <si>
-    <t>Número de documento</t>
-  </si>
-  <si>
     <t>asdgf789654</t>
   </si>
   <si>
@@ -365,6 +320,63 @@
   </si>
   <si>
     <t>FelipeRam88$</t>
+  </si>
+  <si>
+    <t>numeroInvitados</t>
+  </si>
+  <si>
+    <t>estadoReserva</t>
+  </si>
+  <si>
+    <t>numeroDeTurno</t>
+  </si>
+  <si>
+    <t>horaInicio</t>
+  </si>
+  <si>
+    <t>horaFinalización</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>tipoDeDocumento</t>
+  </si>
+  <si>
+    <t>numeroDeDocumento</t>
+  </si>
+  <si>
+    <t>fechaDeNacimiento</t>
+  </si>
+  <si>
+    <t>numeroDeContacto</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>este dato representa en forma textual que tipo de documento tiene el residente como TI, CC, RC, PASS</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el numero único del documento de un residente.</t>
+  </si>
+  <si>
+    <t>este dato representa la contraseña con la que ingresa el residente</t>
+  </si>
+  <si>
+    <t>Este dato representa el inmueble al cual pertenece el residente.</t>
+  </si>
+  <si>
+    <t>este dato representa el estado de un turno de manera logica como disponible y no disponible.</t>
+  </si>
+  <si>
+    <t>Este dato representa la cantidad de invitados con los cuales el residente va hacer la reserva.</t>
+  </si>
+  <si>
+    <t>Este dato representa la fecha de cracion de la reserva</t>
   </si>
 </sst>
 </file>
@@ -549,16 +561,16 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,9 +694,9 @@
       <sheetName val="Residente"/>
       <sheetName val="ZonaComun"/>
       <sheetName val="Agenda"/>
-      <sheetName val="RepetirAgenda"/>
       <sheetName val="Turno"/>
       <sheetName val="Reserva"/>
+      <sheetName val="RepetirAgenda"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -713,7 +725,7 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -733,40 +745,14 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7" t="str">
-            <v>Casa '11' de Bloque2 de 2-Natural</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10" t="str">
-            <v>Casa '52' de Bloque3 de 3-Riogrande</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11" t="str">
-            <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12" t="str">
-            <v>Casa '12' de Bloque3 de 3-Riogrande</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1088,13 +1074,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,28 +1088,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1140,56 +1126,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5276C67-4ACF-4F34-ACBA-8F9695F1FA3D}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="156.33203125" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="204.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="156.28515625" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" customWidth="1"/>
+    <col min="5" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="223" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1198,24 +1187,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>Turno!$G$6</f>
@@ -1227,25 +1214,22 @@
       </c>
       <c r="E4" s="11" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>29/09/2024</v>
+        <v>30/09/2024</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>C4&amp;"-"&amp;D4</f>
         <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>Turno!$G$9</f>
@@ -1257,22 +1241,22 @@
       </c>
       <c r="E5" s="11" t="str">
         <f t="shared" ref="E5:E10" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>29/09/2024</v>
+        <v>30/09/2024</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="13" t="str">
         <f t="shared" ref="G5:G10" si="1">C5&amp;"-"&amp;D5</f>
         <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="str">
         <f>Turno!$G$13</f>
@@ -1284,122 +1268,122 @@
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>29/09/2024</v>
+        <v>30/09/2024</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>56</v>
+      </c>
+      <c r="C7" s="36" t="str">
         <f>Turno!$G$10</f>
         <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="D7" s="35" t="str">
         <f>Residente!K9</f>
-        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
+        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>29/09/2024</v>
+        <v>30/09/2024</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>57</v>
+      </c>
+      <c r="C8" s="36" t="str">
         <f>Turno!G12</f>
         <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
       <c r="D8" s="35" t="str">
         <f>Residente!K10</f>
-        <v>Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
+        <v>Camila Torres-Tarjeta de Identidad-900123456-0</v>
       </c>
       <c r="E8" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>29/09/2024</v>
+        <v>30/09/2024</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Camila Torres-Tarjeta de Identidad-900123456-0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>58</v>
+      </c>
+      <c r="C9" s="36" t="str">
         <f>Turno!G6</f>
         <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="D9" s="35" t="str">
         <f>Residente!K11</f>
-        <v>Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
+        <v>Andrés García-Pasaporte-1045678901-0</v>
       </c>
       <c r="E9" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>29/09/2024</v>
+        <v>30/09/2024</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Andrés García-Pasaporte-1045678901-0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>57</v>
+      </c>
+      <c r="C10" s="36" t="str">
         <f>Turno!$G$8</f>
         <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="D10" s="35" t="str">
         <f>Residente!K13</f>
-        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
+        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-0</v>
       </c>
       <c r="E10" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>29/09/2024</v>
+        <v>30/09/2024</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
+        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Felipe Ramírez-Cédula de Ciudadanía-1067890123-0</v>
       </c>
     </row>
   </sheetData>
@@ -1429,82 +1413,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB08A702-FD28-42AA-96CF-A0FF0C0CE614}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="123.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="130.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="133.85546875" customWidth="1"/>
+    <col min="7" max="7" width="141.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="15">
         <v>0.25</v>
@@ -1513,26 +1499,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F4" s="17" t="str">
         <f>[1]Turno!F4</f>
         <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
       <c r="G4" s="13" t="str">
-        <f t="shared" ref="G4:G21" si="0">_xlfn.CONCAT(B4,"-",F4)</f>
+        <f t="shared" ref="G4:G17" si="0">_xlfn.CONCAT(B4,"-",F4)</f>
         <v>Turno 1-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" s="15">
         <v>0.33333333333333331</v>
@@ -1541,7 +1524,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5" s="17" t="str">
         <f>[1]Turno!F5</f>
@@ -1551,16 +1534,13 @@
         <f t="shared" si="0"/>
         <v>Turno 2-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6" s="15">
         <v>0.41666666666666669</v>
@@ -1569,7 +1549,7 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F6" s="17" t="str">
         <f>[1]Turno!F6</f>
@@ -1579,16 +1559,13 @@
         <f t="shared" si="0"/>
         <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" s="15">
         <v>0.54166666666666696</v>
@@ -1597,7 +1574,7 @@
         <v>0.58333333333333404</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F7" s="17" t="str">
         <f>[1]Turno!F7</f>
@@ -1608,12 +1585,12 @@
         <v>Turno 4-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" s="19">
         <v>0.625</v>
@@ -1622,7 +1599,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F8" s="21" t="str">
         <f>[1]Turno!F8</f>
@@ -1633,12 +1610,12 @@
         <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" s="19">
         <v>0.70833333333333337</v>
@@ -1647,7 +1624,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F9" s="21" t="str">
         <f>[1]Turno!F9</f>
@@ -1658,12 +1635,12 @@
         <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="19">
         <v>0.79166666666666663</v>
@@ -1672,7 +1649,7 @@
         <v>0.875</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F10" s="21" t="str">
         <f>[1]Turno!F10</f>
@@ -1683,12 +1660,12 @@
         <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C11" s="23">
         <v>0.91666666666666663</v>
@@ -1697,7 +1674,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" s="25" t="str">
         <f>[1]Turno!F11</f>
@@ -1708,12 +1685,12 @@
         <v>Turno 1-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>9</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="23">
         <v>0.45833333333333331</v>
@@ -1722,7 +1699,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F12" s="25" t="str">
         <f>[1]Turno!F12</f>
@@ -1733,12 +1710,12 @@
         <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23">
         <v>0.5</v>
@@ -1747,7 +1724,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F13" s="25" t="str">
         <f>[1]Turno!F13</f>
@@ -1758,12 +1735,12 @@
         <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" s="27">
         <v>0.33333333333333331</v>
@@ -1772,7 +1749,7 @@
         <v>0.375</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" s="29" t="str">
         <f>[1]Turno!F14</f>
@@ -1783,12 +1760,12 @@
         <v>Turno 1-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C15" s="27">
         <v>0.375</v>
@@ -1797,7 +1774,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F15" s="29" t="str">
         <f>[1]Turno!F15</f>
@@ -1808,12 +1785,12 @@
         <v>Turno 2-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" s="27">
         <v>0.41666666666666702</v>
@@ -1822,7 +1799,7 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F16" s="29" t="str">
         <f>[1]Turno!F16</f>
@@ -1833,12 +1810,12 @@
         <v>Turno 3-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C17" s="27">
         <v>0.45833333333333398</v>
@@ -1847,7 +1824,7 @@
         <v>0.500000000000001</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F17" s="29" t="str">
         <f>[1]Turno!F17</f>
@@ -1877,30 +1854,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F107DE-6D7F-46D5-A5A6-9AD6DF906ACB}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.5546875" customWidth="1"/>
-    <col min="11" max="11" width="86.109375" customWidth="1"/>
+    <col min="3" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="86.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1908,84 +1886,88 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E4" s="31">
         <v>74564891</v>
@@ -1997,10 +1979,10 @@
         <v>3053456459</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J4" s="31" t="str">
         <f>[2]Residente!J4</f>
@@ -2011,18 +1993,18 @@
         <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="31">
         <v>16513516</v>
@@ -2034,10 +2016,10 @@
         <v>3015124578</v>
       </c>
       <c r="H5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>61</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="J5" s="31" t="str">
         <f>[2]Residente!J5</f>
@@ -2048,18 +2030,18 @@
         <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E6" s="31">
         <v>8552369</v>
@@ -2071,10 +2053,10 @@
         <v>3057477830</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J6" s="30" t="str">
         <f>[2]Residente!J6</f>
@@ -2085,265 +2067,269 @@
         <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4">
         <v>1012345678</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>32944</v>
       </c>
       <c r="G7" s="4">
         <v>3102345678</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="30" t="str">
+        <v>67</v>
+      </c>
+      <c r="J7" s="30">
         <f>[3]Inmueble!F10</f>
-        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+        <v>0</v>
       </c>
       <c r="K7" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-Casa '52' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4">
         <v>1023456789</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>31253</v>
       </c>
       <c r="G8" s="4">
         <v>3204567890</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="30" t="str">
+        <v>72</v>
+      </c>
+      <c r="J8" s="30">
         <f>[3]Inmueble!F6</f>
-        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+        <v>0</v>
       </c>
       <c r="K8" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>María Gómez-Cédula de extranjería-1023456789-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>María Gómez-Cédula de extranjería-1023456789-0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4">
         <v>1034567890</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>35013</v>
       </c>
       <c r="G9" s="4">
         <v>3156781234</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="30" t="str">
+        <v>75</v>
+      </c>
+      <c r="J9" s="30">
         <f>[3]Inmueble!F12</f>
-        <v>Casa '12' de Bloque3 de 3-Riogrande</v>
+        <v>0</v>
       </c>
       <c r="K9" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4">
         <v>900123456</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>36560</v>
       </c>
       <c r="G10" s="4">
         <v>3112345678</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="30" t="str">
+        <v>79</v>
+      </c>
+      <c r="J10" s="30">
         <f>[3]Inmueble!F11</f>
-        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+        <v>0</v>
       </c>
       <c r="K10" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Camila Torres-Tarjeta de Identidad-900123456-0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E11" s="4">
         <v>1045678901</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>33867</v>
       </c>
       <c r="G11" s="4">
         <v>3149876543</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="4" t="str">
+        <v>83</v>
+      </c>
+      <c r="J11" s="4">
         <f>[3]Inmueble!F10</f>
-        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+        <v>0</v>
       </c>
       <c r="K11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Andrés García-Pasaporte-1045678901-0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4">
         <v>1056789012</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>34128</v>
       </c>
       <c r="G12" s="4">
         <v>3135678901</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="4" t="str">
+        <v>87</v>
+      </c>
+      <c r="J12" s="4">
         <f>[3]Inmueble!F6</f>
-        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+        <v>0</v>
       </c>
       <c r="K12" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4">
         <v>1067890123</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>32507</v>
       </c>
       <c r="G13" s="4">
         <v>3123456789</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="4" t="str">
+        <v>91</v>
+      </c>
+      <c r="J13" s="4">
         <f>[3]Inmueble!F7</f>
-        <v>Casa '11' de Bloque2 de 2-Natural</v>
+        <v>0</v>
       </c>
       <c r="K13" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
+        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575913D-7C4C-4E9B-94C5-514B016DDD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41281AB2-A38F-44CC-A989-8CC1E4991A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="3945" windowWidth="15855" windowHeight="15345" activeTab="3" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
+    <workbookView minimized="1" xWindow="2916" yWindow="3708" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -599,9 +599,9 @@
       <sheetName val="Turno"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="4">
           <cell r="F4" t="str">
@@ -690,42 +690,18 @@
       <sheetName val="Administrador"/>
       <sheetName val="ConjuntoResidencial"/>
       <sheetName val="Zonainmueble"/>
-      <sheetName val="Inmueble"/>
-      <sheetName val="Residente"/>
       <sheetName val="ZonaComun"/>
       <sheetName val="Agenda"/>
       <sheetName val="Turno"/>
-      <sheetName val="Reserva"/>
-      <sheetName val="RepetirAgenda"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="J4" t="str">
-            <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5" t="str">
-            <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6" t="str">
-            <v>Casa '11' de Bloque2 de 2-Natural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1074,13 +1050,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1130,17 +1106,17 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="156.28515625" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" customWidth="1"/>
-    <col min="5" max="6" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="156.33203125" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="5" max="6" width="23.5546875" customWidth="1"/>
     <col min="7" max="7" width="223" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1126,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1173,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1208,23 +1184,23 @@
         <f>Turno!$G$6</f>
         <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
-      <c r="D4" s="35" t="str">
+      <c r="D4" s="35" t="e">
         <f>Residente!$K$4</f>
-        <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
+        <v>#REF!</v>
       </c>
       <c r="E4" s="11" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>30/09/2024</v>
+        <v>01/10/2024</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="str">
+      <c r="G4" s="13" t="e">
         <f>C4&amp;"-"&amp;D4</f>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1235,23 +1211,23 @@
         <f>Turno!$G$9</f>
         <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
-      <c r="D5" s="35" t="str">
+      <c r="D5" s="35" t="e">
         <f>Residente!$K$5</f>
-        <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
+        <v>#REF!</v>
       </c>
       <c r="E5" s="11" t="str">
         <f t="shared" ref="E5:E10" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>30/09/2024</v>
+        <v>01/10/2024</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="13" t="e">
         <f t="shared" ref="G5:G10" si="1">C5&amp;"-"&amp;D5</f>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1262,23 +1238,23 @@
         <f>Turno!$G$13</f>
         <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
-      <c r="D6" s="35" t="str">
+      <c r="D6" s="35" t="e">
         <f>Residente!$K$6</f>
-        <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
+        <v>#REF!</v>
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30/09/2024</v>
+        <v>01/10/2024</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="13" t="e">
         <f t="shared" si="1"/>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1295,7 +1271,7 @@
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30/09/2024</v>
+        <v>01/10/2024</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -1305,7 +1281,7 @@
         <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1322,7 +1298,7 @@
       </c>
       <c r="E8" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30/09/2024</v>
+        <v>01/10/2024</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -1332,7 +1308,7 @@
         <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Camila Torres-Tarjeta de Identidad-900123456-0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1349,7 +1325,7 @@
       </c>
       <c r="E9" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30/09/2024</v>
+        <v>01/10/2024</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>16</v>
@@ -1359,7 +1335,7 @@
         <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Andrés García-Pasaporte-1045678901-0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1376,7 +1352,7 @@
       </c>
       <c r="E10" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30/09/2024</v>
+        <v>01/10/2024</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>14</v>
@@ -1419,17 +1395,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="133.85546875" customWidth="1"/>
-    <col min="7" max="7" width="141.7109375" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="133.88671875" customWidth="1"/>
+    <col min="7" max="7" width="141.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
@@ -1439,7 +1415,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +1438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -1510,7 +1486,7 @@
         <v>Turno 1-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1535,7 +1511,7 @@
         <v>Turno 2-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1560,7 +1536,7 @@
         <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1585,7 +1561,7 @@
         <v>Turno 4-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -1610,7 +1586,7 @@
         <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -1635,7 +1611,7 @@
         <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -1660,7 +1636,7 @@
         <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>8</v>
       </c>
@@ -1685,7 +1661,7 @@
         <v>Turno 1-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>9</v>
       </c>
@@ -1710,7 +1686,7 @@
         <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>10</v>
       </c>
@@ -1735,7 +1711,7 @@
         <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>11</v>
       </c>
@@ -1760,7 +1736,7 @@
         <v>Turno 1-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>12</v>
       </c>
@@ -1785,7 +1761,7 @@
         <v>Turno 2-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>13</v>
       </c>
@@ -1810,7 +1786,7 @@
         <v>Turno 3-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>14</v>
       </c>
@@ -1860,19 +1836,19 @@
       <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" customWidth="1"/>
-    <col min="11" max="11" width="86.140625" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.5546875" customWidth="1"/>
+    <col min="11" max="11" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1862,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +1932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1984,16 +1960,16 @@
       <c r="I4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="31" t="str">
-        <f>[2]Residente!J4</f>
-        <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="K4" s="34" t="str">
+      <c r="J4" s="31" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" s="34" t="e">
         <f>_xlfn.CONCAT(B4," ",C4,"-",D4,"-",E4,"-",J4)</f>
-        <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2021,16 +1997,16 @@
       <c r="I5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="31" t="str">
-        <f>[2]Residente!J5</f>
-        <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="K5" s="34" t="str">
+      <c r="J5" s="31" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="34" t="e">
         <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
-        <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2058,16 +2034,16 @@
       <c r="I6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="30" t="str">
-        <f>[2]Residente!J6</f>
-        <v>Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-      <c r="K6" s="34" t="str">
+      <c r="J6" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="34" t="e">
         <f t="shared" si="0"/>
-        <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2104,7 +2080,7 @@
         <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2141,7 +2117,7 @@
         <v>María Gómez-Cédula de extranjería-1023456789-0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2178,7 +2154,7 @@
         <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2215,7 +2191,7 @@
         <v>Camila Torres-Tarjeta de Identidad-900123456-0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -2252,7 +2228,7 @@
         <v>Andrés García-Pasaporte-1045678901-0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -2289,7 +2265,7 @@
         <v>Laura Martínez-Cédula de Ciudadanía-1056789012-0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2326,10 +2302,10 @@
         <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-0</v>
       </c>
     </row>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41281AB2-A38F-44CC-A989-8CC1E4991A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FFE3F-A8CD-45B1-9530-78EA1A9E6153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2916" yWindow="3708" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>Nombre</t>
   </si>
@@ -106,21 +104,12 @@
     <t>Es un dato que hace que cada turno sea único.</t>
   </si>
   <si>
-    <t>Este dato representa el nombre y número con el que se va a concoer el turno</t>
-  </si>
-  <si>
     <t>Es un dato que representa la hora de inicio del turno.</t>
   </si>
   <si>
     <t>Es un dato que representa la hora de finalización del turno.</t>
   </si>
   <si>
-    <t>Este dato represdenta con que agenda está relacionada el turno.</t>
-  </si>
-  <si>
-    <t>Un turno especifico no puede repetirse dentro de la misma agenda</t>
-  </si>
-  <si>
     <t>Turno 1</t>
   </si>
   <si>
@@ -136,9 +125,6 @@
     <t>Turno 3</t>
   </si>
   <si>
-    <t>No disponible</t>
-  </si>
-  <si>
     <t>Turno 4</t>
   </si>
   <si>
@@ -160,9 +146,6 @@
     <t>Este dato representa el correo electrónico de un residente</t>
   </si>
   <si>
-    <t>No puede haber mas de un residente con la misma cédula</t>
-  </si>
-  <si>
     <t>contraseña</t>
   </si>
   <si>
@@ -211,9 +194,6 @@
     <t>Corresponde a cada una de las reservas que pude hacer el residente, es decir, el residente puede reservar una zona común, ejemplo: El residente 001 reserva la piscina con su respectivo turno.</t>
   </si>
   <si>
-    <t>solo objeto agenada y objeto residente</t>
-  </si>
-  <si>
     <t>3 invitados</t>
   </si>
   <si>
@@ -328,39 +308,15 @@
     <t>estadoReserva</t>
   </si>
   <si>
-    <t>numeroDeTurno</t>
-  </si>
-  <si>
     <t>horaInicio</t>
   </si>
   <si>
-    <t>horaFinalización</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
     <t>apellido</t>
   </si>
   <si>
-    <t>tipoDeDocumento</t>
-  </si>
-  <si>
-    <t>numeroDeDocumento</t>
-  </si>
-  <si>
-    <t>fechaDeNacimiento</t>
-  </si>
-  <si>
-    <t>numeroDeContacto</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>este dato representa en forma textual que tipo de documento tiene el residente como TI, CC, RC, PASS</t>
-  </si>
-  <si>
     <t>Es un dato que representa el numero único del documento de un residente.</t>
   </si>
   <si>
@@ -370,13 +326,85 @@
     <t>Este dato representa el inmueble al cual pertenece el residente.</t>
   </si>
   <si>
-    <t>este dato representa el estado de un turno de manera logica como disponible y no disponible.</t>
-  </si>
-  <si>
     <t>Este dato representa la cantidad de invitados con los cuales el residente va hacer la reserva.</t>
   </si>
   <si>
     <t>Este dato representa la fecha de cracion de la reserva</t>
+  </si>
+  <si>
+    <t>Este dato representa el nombre y número con el que se va a concoer el turno por defecto la palabra "Turno" y luego un numero consecutivo</t>
+  </si>
+  <si>
+    <t>Este dato es de tipo logico el cual dice si esta disponible o no disponible un turno</t>
+  </si>
+  <si>
+    <t>Este dato representa con que agenda está relacionada el turno.</t>
+  </si>
+  <si>
+    <t>No es posible tener un nombre con la misma agenda para la misma hora de inicio y hora final del turno para una misma turno.</t>
+  </si>
+  <si>
+    <t>numeroTurno</t>
+  </si>
+  <si>
+    <t>horaFin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. </t>
+  </si>
+  <si>
+    <t>NoDisponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. </t>
+  </si>
+  <si>
+    <t>este dato representa en forma textual , que tipo de documento tiene el residente como TI, CC, RC, PASS.</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo tipo de documento y el mismo número de documento.</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo número de contacto</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo correo.</t>
+  </si>
+  <si>
+    <t>tipoDocumento</t>
+  </si>
+  <si>
+    <t>numeroDocumento</t>
+  </si>
+  <si>
+    <t>fechaNacimiento</t>
+  </si>
+  <si>
+    <t>numeroContacto</t>
+  </si>
+  <si>
+    <t>correoElectronico</t>
+  </si>
+  <si>
+    <t>Combinación única 1</t>
+  </si>
+  <si>
+    <t>Combinación única 2</t>
+  </si>
+  <si>
+    <t>Combinación única 3</t>
+  </si>
+  <si>
+    <t>No es posible tener una reserva con un turno para el mismo residente.</t>
   </si>
 </sst>
 </file>
@@ -386,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,14 +446,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF4EA72E"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +505,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -493,12 +542,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -506,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -515,13 +568,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,33 +582,26 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,6 +609,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -594,134 +663,64 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Objetos de dominio"/>
-      <sheetName val="ZonaComun"/>
-      <sheetName val="Agenda"/>
-      <sheetName val="Turno"/>
+      <sheetName val="Residente"/>
+      <sheetName val="Inmueble"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="2">
         <row r="4">
-          <cell r="F4" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+          <cell r="E4" t="str">
+            <v>Apartamento102 - Torre1 - Forest apartamentos</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="F5" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+          <cell r="E5" t="str">
+            <v>Casa10 - Bloque1 - Forest apartamentos</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="F6" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+          <cell r="E6" t="str">
+            <v>Apartamento304 - Torre2 - Forest apartamentos</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="F7" t="str">
-            <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
+          <cell r="E7" t="str">
+            <v>Casa11 - Bloque1 - Natural</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="F8" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+          <cell r="E8" t="str">
+            <v>Apartamento423 - Bloque1 - Ventus</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="F9" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+          <cell r="E9" t="str">
+            <v>Apartamento1204 - Torre1 - Bolivar</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="F10" t="str">
-            <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
+          <cell r="E10" t="str">
+            <v>Casa5 - Bloque1 - Natural</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="F11" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+          <cell r="E11" t="str">
+            <v>Casa17 - Bloque2 - Riogrande</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="F12" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
+          <cell r="E12" t="str">
+            <v>Apartamento514 - Bloque1 - Riogrande</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="F13" t="str">
-            <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17" t="str">
-            <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
+          <cell r="E13" t="str">
+            <v>Casa23 - Bloque1 - Natural</v>
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Objetos de dominio"/>
-      <sheetName val="Administrador"/>
-      <sheetName val="ConjuntoResidencial"/>
-      <sheetName val="Zonainmueble"/>
-      <sheetName val="ZonaComun"/>
-      <sheetName val="Agenda"/>
-      <sheetName val="Turno"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Objetos de dominio"/>
-      <sheetName val="Residente"/>
-      <sheetName val="Inmueble"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1047,16 +1046,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,28 +1063,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1100,61 +1099,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5276C67-4ACF-4F34-ACBA-8F9695F1FA3D}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="156.33203125" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="223" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="31" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1166,200 +1165,199 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="32" t="str">
         <f>Turno!$G$6</f>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="D4" s="35" t="e">
+        <v xml:space="preserve">Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. </v>
+      </c>
+      <c r="D4" s="34" t="str">
         <f>Residente!$K$4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="11" t="str">
+        <v>Cédula de Ciudadanía-74564891</v>
+      </c>
+      <c r="E4" s="8" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>01/10/2024</v>
-      </c>
-      <c r="F4" s="12" t="s">
+        <v>09/10/2024</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="e">
+      <c r="G4" s="10" t="str">
         <f>C4&amp;"-"&amp;D4</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+        <v>Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. -Cédula de Ciudadanía-74564891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="32" t="str">
         <f>Turno!$G$9</f>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="D5" s="35" t="e">
+        <v xml:space="preserve">Turno 2-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 5:00:00 p. m. - 7:00:00 p. m. </v>
+      </c>
+      <c r="D5" s="34" t="str">
         <f>Residente!$K$5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" s="11" t="str">
+        <v>Registro civil-16513516</v>
+      </c>
+      <c r="E5" s="8" t="str">
         <f t="shared" ref="E5:E10" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>01/10/2024</v>
-      </c>
-      <c r="F5" s="12" t="s">
+        <v>09/10/2024</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="e">
+      <c r="G5" s="10" t="str">
         <f t="shared" ref="G5:G10" si="1">C5&amp;"-"&amp;D5</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+        <v>Turno 2-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 5:00:00 p. m. - 7:00:00 p. m. -Registro civil-16513516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="32" t="str">
         <f>Turno!$G$13</f>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="D6" s="35" t="e">
+        <v xml:space="preserve">Turno 3-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 12:00:00 p. m. - 1:00:00 p. m. </v>
+      </c>
+      <c r="D6" s="34" t="str">
         <f>Residente!$K$6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="11" t="str">
+        <v>Pasaporte-8552369</v>
+      </c>
+      <c r="E6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/10/2024</v>
-      </c>
-      <c r="F6" s="12" t="s">
+        <v>09/10/2024</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="e">
+      <c r="G6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+        <v>Turno 3-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 12:00:00 p. m. - 1:00:00 p. m. -Pasaporte-8552369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="36" t="str">
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="33" t="str">
         <f>Turno!$G$10</f>
-        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="D7" s="35" t="str">
+        <v xml:space="preserve">Turno 3-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 7:00:00 p. m. - 9:00:00 p. m. </v>
+      </c>
+      <c r="D7" s="34" t="str">
         <f>Residente!K9</f>
-        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
-      </c>
-      <c r="E7" s="11" t="str">
+        <v>Cédula de Ciudadanía-1034567890</v>
+      </c>
+      <c r="E7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/10/2024</v>
-      </c>
-      <c r="F7" s="12" t="s">
+        <v>09/10/2024</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+        <v>Turno 3-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 7:00:00 p. m. - 9:00:00 p. m. -Cédula de Ciudadanía-1034567890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="36" t="str">
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="33" t="str">
         <f>Turno!G12</f>
-        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="D8" s="35" t="str">
+        <v xml:space="preserve">Turno 2-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
+      </c>
+      <c r="D8" s="34" t="str">
         <f>Residente!K10</f>
-        <v>Camila Torres-Tarjeta de Identidad-900123456-0</v>
-      </c>
-      <c r="E8" s="11" t="str">
+        <v>Tarjeta de Identidad-900123456</v>
+      </c>
+      <c r="E8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/10/2024</v>
-      </c>
-      <c r="F8" s="12" t="s">
+        <v>09/10/2024</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural-Camila Torres-Tarjeta de Identidad-900123456-0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+        <v>Turno 2-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. -Tarjeta de Identidad-900123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="36" t="str">
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="33" t="str">
         <f>Turno!G6</f>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="D9" s="35" t="str">
+        <v xml:space="preserve">Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. </v>
+      </c>
+      <c r="D9" s="34" t="str">
         <f>Residente!K11</f>
-        <v>Andrés García-Pasaporte-1045678901-0</v>
-      </c>
-      <c r="E9" s="11" t="str">
+        <v>Pasaporte-1045678901</v>
+      </c>
+      <c r="E9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/10/2024</v>
-      </c>
-      <c r="F9" s="12" t="s">
+        <v>09/10/2024</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos-Andrés García-Pasaporte-1045678901-0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+        <v>Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. -Pasaporte-1045678901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="36" t="str">
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="33" t="str">
         <f>Turno!$G$8</f>
-        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="D10" s="35" t="str">
+        <v xml:space="preserve">Turno 1-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 3:00:00 p. m. - 5:00:00 p. m. </v>
+      </c>
+      <c r="D10" s="34" t="str">
         <f>Residente!K13</f>
-        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-0</v>
-      </c>
-      <c r="E10" s="11" t="str">
+        <v>Cédula de Ciudadanía-1067890123</v>
+      </c>
+      <c r="E10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/10/2024</v>
-      </c>
-      <c r="F10" s="12" t="s">
+        <v>09/10/2024</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos-Felipe Ramírez-Cédula de Ciudadanía-1067890123-0</v>
+        <v>Turno 1-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 3:00:00 p. m. - 5:00:00 p. m. -Cédula de Ciudadanía-1067890123</v>
       </c>
     </row>
   </sheetData>
@@ -1389,440 +1387,638 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB08A702-FD28-42AA-96CF-A0FF0C0CE614}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="133.88671875" customWidth="1"/>
-    <col min="7" max="7" width="141.6640625" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="133.7109375" customWidth="1"/>
+    <col min="7" max="7" width="140.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f>_xlfn.CONCAT(B4,"-",F4,"-",TEXT(C4," h:mm:ss AM/PM "),"-",TEXT(D4," h:mm:ss AM/PM "))</f>
+        <v xml:space="preserve">Turno 1-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 6:00:00 a. m. - 8:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="10" t="str">
+        <f t="shared" ref="G5:G21" si="0">_xlfn.CONCAT(B5,"-",F5,"-",TEXT(C5," h:mm:ss AM/PM "),"-",TEXT(D5," h:mm:ss AM/PM "))</f>
+        <v xml:space="preserve">Turno 2-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 8:00:00 a. m. - 10:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="C7" s="12">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 4-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 1:00:00 p. m. - 2:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 1-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 3:00:00 p. m. - 5:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 2-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 5:00:00 p. m. - 7:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 3-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 7:00:00 p. m. - 9:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 1-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 10:00:00 p. m. - 11:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 2-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 3-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 12:00:00 p. m. - 1:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 1-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 8:00:00 a. m. - 9:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 2-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 9:00:00 a. m. - 10:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="B16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 3-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 10:00:00 a. m. - 11:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 4-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>15</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="40">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 1-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 8:00:00 a. m. - 9:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>16</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="C19" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Turno 2-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 9:00:00 a. m. - 10:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>17</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="17" t="str">
-        <f>[1]Turno!F4</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f t="shared" ref="G4:G17" si="0">_xlfn.CONCAT(B4,"-",F4)</f>
-        <v>Turno 1-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="17" t="str">
-        <f>[1]Turno!F5</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="G5" s="13" t="str">
+      <c r="C20" s="40">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="17" t="str">
-        <f>[1]Turno!F6</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="G6" s="13" t="str">
+        <v xml:space="preserve">Turno 3-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 10:00:00 a. m. - 11:00:00 a. m. </v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>18</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="40">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.58333333333333404</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="17" t="str">
-        <f>[1]Turno!F7</f>
-        <v>Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="G7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 4-Agenda para residentes turno Diurno - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. -Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>5</v>
-      </c>
-      <c r="B8" s="18" t="s">
+        <v xml:space="preserve">Turno 4-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="42" t="str">
+        <f t="shared" ref="G22:G27" si="1">_xlfn.CONCAT(B22,"-",F22)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
         <v>25</v>
       </c>
-      <c r="C8" s="19">
-        <v>0.625</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="21" t="str">
-        <f>[1]Turno!F8</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="21" t="str">
-        <f>[1]Turno!F9</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.875</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="21" t="str">
-        <f>[1]Turno!F10</f>
-        <v>Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Nocturno - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. -Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="25" t="str">
-        <f>[1]Turno!F11</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="25" t="str">
-        <f>[1]Turno!F12</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
-        <v>10</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="25" t="str">
-        <f>[1]Turno!F13</f>
-        <v>Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="G13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. -piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
-        <v>11</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="27">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D14" s="27">
-        <v>0.375</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="29" t="str">
-        <f>[1]Turno!F14</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-      </c>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
-        <v>12</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="27">
-        <v>0.375</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="29" t="str">
-        <f>[1]Turno!F15</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-      </c>
-      <c r="G15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>13</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="27">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="29" t="str">
-        <f>[1]Turno!F16</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-      </c>
-      <c r="G16" s="13" t="str">
-        <f>_xlfn.CONCAT(B16,"-",F16)</f>
-        <v>Turno 3-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
-        <v>14</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0.500000000000001</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="29" t="str">
-        <f>[1]Turno!F17</f>
-        <v>Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
-      </c>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 4-Agenda para dias de mantenimiento - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. -Salón de Eventos-3-Riogrande</v>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E21" xr:uid="{4E14E96E-875F-4B7F-84D9-FF690140800F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E17" xr:uid="{8534CFAA-8F49-4B4A-B016-CB3FC85D0F5A}">
       <formula1>$I$5:$I$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{81F0C5EA-B874-4444-83B9-1A851C1004F6}"/>
-    <hyperlink ref="A1:C1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{24E2579D-370F-4BC8-8839-76C7797F70D0}"/>
+    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{C899303E-46E0-40DF-B745-5E0822DA9DFE}"/>
+    <hyperlink ref="F3" location="Agenda!A1" display="Agenda" xr:uid="{F351614B-B100-4FDB-95F2-ACC5F344CEE4}"/>
+    <hyperlink ref="F4" location="Agenda!A4" display="Agenda!A4" xr:uid="{46B24180-1511-4011-9A4D-0CD4DC3AFCAD}"/>
+    <hyperlink ref="F8" location="Agenda!A5" display="Agenda!A5" xr:uid="{3068A133-16D6-4EE4-8CAC-BD721CEA7A05}"/>
+    <hyperlink ref="F11" location="Agenda!A6" display="Agenda!A6" xr:uid="{C0B39A38-FB78-4015-AE95-47AFAD219F5A}"/>
+    <hyperlink ref="F14" location="Agenda!A7" display="Agenda!A7" xr:uid="{91C5990E-3F71-42B8-B84B-FFAB706A5CF2}"/>
+    <hyperlink ref="F18" location="Agenda!A10" display="Agenda!A10" xr:uid="{B512ED51-E546-4844-A903-8D41FE3D1871}"/>
+    <hyperlink ref="F19:F20" location="Agenda!A10" display="Agenda!A10" xr:uid="{28CC8C95-FDA5-49CC-9829-4C5E659D825F}"/>
+    <hyperlink ref="F21" location="Agenda!A10" display="Agenda!A10" xr:uid="{0AC83AC0-F53E-4BA5-BDB9-43F89EF256BF}"/>
+    <hyperlink ref="F15:F17" location="Agenda!A7" display="Agenda!A7" xr:uid="{D964D240-A79B-42C7-B793-B878A6CFDACD}"/>
+    <hyperlink ref="F12:F13" location="Agenda!A6" display="Agenda!A6" xr:uid="{90D03B01-F707-4FBC-A858-14ABA329C17B}"/>
+    <hyperlink ref="F9:F10" location="Agenda!A5" display="Agenda!A5" xr:uid="{4DC9A116-3A44-4026-925C-6E280A5638B1}"/>
+    <hyperlink ref="F5:F7" location="Agenda!A4" display="Agenda!A4" xr:uid="{2DBD8F0F-0350-486A-BEAD-F3D268C2FF77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1830,31 +2026,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F107DE-6D7F-46D5-A5A6-9AD6DF906ACB}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.5546875" customWidth="1"/>
-    <col min="11" max="11" width="86.109375" customWidth="1"/>
+    <col min="3" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1862,465 +2060,563 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" s="45" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="24">
+        <v>74564891</v>
+      </c>
+      <c r="F4" s="25">
+        <v>36689</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3053456459</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="46" t="str">
+        <f>[1]Inmueble!E4</f>
+        <v>Apartamento102 - Torre1 - Forest apartamentos</v>
+      </c>
+      <c r="K4" s="27" t="str">
+        <f>_xlfn.CONCAT(D4,"-",E4)</f>
+        <v>Cédula de Ciudadanía-74564891</v>
+      </c>
+      <c r="L4" s="27">
+        <f>G4</f>
+        <v>3053456459</v>
+      </c>
+      <c r="M4" s="27" t="str">
+        <f>H4</f>
+        <v>example@example.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="24">
+        <v>16513516</v>
+      </c>
+      <c r="F5" s="25">
+        <v>38315</v>
+      </c>
+      <c r="G5" s="24">
+        <v>3015124578</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="I5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="46" t="str">
+        <f>[1]Inmueble!E5</f>
+        <v>Casa10 - Bloque1 - Forest apartamentos</v>
+      </c>
+      <c r="K5" s="27" t="str">
+        <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(D5,"-",E5)</f>
+        <v>Registro civil-16513516</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" ref="L5:M13" si="1">G5</f>
+        <v>3015124578</v>
+      </c>
+      <c r="M5" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ejemplo@jueves.com </v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="31">
-        <v>74564891</v>
-      </c>
-      <c r="F4" s="32">
-        <v>36689</v>
-      </c>
-      <c r="G4" s="31">
-        <v>3053456459</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="C6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="24">
+        <v>8552369</v>
+      </c>
+      <c r="F6" s="25">
+        <v>35494</v>
+      </c>
+      <c r="G6" s="24">
+        <v>3057477830</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="26" t="str">
+        <f>[1]Inmueble!E6</f>
+        <v>Apartamento304 - Torre2 - Forest apartamentos</v>
+      </c>
+      <c r="K6" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>Pasaporte-8552369</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="1"/>
+        <v>3057477830</v>
+      </c>
+      <c r="M6" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>andresjobpk@gmail.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="31" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="34" t="e">
-        <f>_xlfn.CONCAT(B4," ",C4,"-",D4,"-",E4,"-",J4)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="31">
-        <v>16513516</v>
-      </c>
-      <c r="F5" s="32">
-        <v>38315</v>
-      </c>
-      <c r="G5" s="31">
-        <v>3015124578</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="31" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="34" t="e">
-        <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="31">
-        <v>8552369</v>
-      </c>
-      <c r="F6" s="32">
-        <v>35494</v>
-      </c>
-      <c r="G6" s="31">
-        <v>3057477830</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="30" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="34" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>1012345678</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="29">
         <v>32944</v>
       </c>
       <c r="G7" s="4">
         <v>3102345678</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>66</v>
+      <c r="H7" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="30">
-        <f>[3]Inmueble!F10</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="34" t="str">
+        <v>61</v>
+      </c>
+      <c r="J7" s="26" t="str">
+        <f>[1]Inmueble!E7</f>
+        <v>Casa11 - Bloque1 - Natural</v>
+      </c>
+      <c r="K7" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+        <v>Cédula de Ciudadanía-1012345678</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>3102345678</v>
+      </c>
+      <c r="M7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>alejandro.perez90@mail.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4">
         <v>1023456789</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="29">
         <v>31253</v>
       </c>
       <c r="G8" s="4">
         <v>3204567890</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>71</v>
+      <c r="H8" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="30">
-        <f>[3]Inmueble!F6</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="34" t="str">
+        <v>66</v>
+      </c>
+      <c r="J8" s="26" t="str">
+        <f>[1]Inmueble!E8</f>
+        <v>Apartamento423 - Bloque1 - Ventus</v>
+      </c>
+      <c r="K8" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>María Gómez-Cédula de extranjería-1023456789-0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+        <v>Cédula de extranjería-1023456789</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>3204567890</v>
+      </c>
+      <c r="M8" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>maria.gomez85@mail.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4">
         <v>1034567890</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="29">
         <v>35013</v>
       </c>
       <c r="G9" s="4">
         <v>3156781234</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>74</v>
+      <c r="H9" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="30">
-        <f>[3]Inmueble!F12</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="34" t="str">
+        <v>69</v>
+      </c>
+      <c r="J9" s="26" t="str">
+        <f>[1]Inmueble!E9</f>
+        <v>Apartamento1204 - Torre1 - Bolivar</v>
+      </c>
+      <c r="K9" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+        <v>Cédula de Ciudadanía-1034567890</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="1"/>
+        <v>3156781234</v>
+      </c>
+      <c r="M9" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>juan.rodriguez95@mail.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4">
         <v>900123456</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="29">
         <v>36560</v>
       </c>
       <c r="G10" s="4">
         <v>3112345678</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>78</v>
+      <c r="H10" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="30">
-        <f>[3]Inmueble!F11</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="34" t="str">
+        <v>73</v>
+      </c>
+      <c r="J10" s="26" t="str">
+        <f>[1]Inmueble!E10</f>
+        <v>Casa5 - Bloque1 - Natural</v>
+      </c>
+      <c r="K10" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Camila Torres-Tarjeta de Identidad-900123456-0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+        <v>Tarjeta de Identidad-900123456</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" si="1"/>
+        <v>3112345678</v>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>camila.torres00@mail.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4">
         <v>1045678901</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="29">
         <v>33867</v>
       </c>
       <c r="G11" s="4">
         <v>3149876543</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>82</v>
+      <c r="H11" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="4">
-        <f>[3]Inmueble!F10</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="34" t="str">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>[1]Inmueble!E11</f>
+        <v>Casa17 - Bloque2 - Riogrande</v>
+      </c>
+      <c r="K11" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Andrés García-Pasaporte-1045678901-0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+        <v>Pasaporte-1045678901</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="1"/>
+        <v>3149876543</v>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>andres.garcia92@mail.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4">
         <v>1056789012</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="29">
         <v>34128</v>
       </c>
       <c r="G12" s="4">
         <v>3135678901</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>86</v>
+      <c r="H12" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="4">
-        <f>[3]Inmueble!F6</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="34" t="str">
+        <v>81</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>[1]Inmueble!E12</f>
+        <v>Apartamento514 - Bloque1 - Riogrande</v>
+      </c>
+      <c r="K12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+        <v>Cédula de Ciudadanía-1056789012</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>3135678901</v>
+      </c>
+      <c r="M12" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>laura.martinez93@mail.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4">
         <v>1067890123</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="29">
         <v>32507</v>
       </c>
       <c r="G13" s="4">
         <v>3123456789</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>90</v>
+      <c r="H13" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="4">
-        <f>[3]Inmueble!F7</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="34" t="str">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>[1]Inmueble!E13</f>
+        <v>Casa23 - Bloque1 - Natural</v>
+      </c>
+      <c r="K13" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>Cédula de Ciudadanía-1067890123</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>3123456789</v>
+      </c>
+      <c r="M13" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>felipe.ramirez88@mail.com</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{16ACC3A6-334C-4E3D-969A-081FA5ED4DC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{91149792-6B4C-49F0-8578-2641DC62D9FE}">
       <formula1>$A$21:$A$24</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{543191AC-0484-47C3-988D-42E0123773ED}"/>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{E4213ACD-8A10-4CD5-AC43-7322EDB2D498}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{B5042EE5-D4CB-421B-9431-5FD39AF1747B}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{A1D58053-C134-467E-A73F-BCB13016AF33}"/>
-    <hyperlink ref="J3" location="Inmueble!A1" display=" inmueble" xr:uid="{6C3241EF-8A5D-4585-A3FE-1CC29EDBB560}"/>
+    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{D8CCCFA5-A14F-488E-AD2E-740EB2C27817}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{A19F4E66-8766-4591-BE35-5AD7FE2EEC93}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{F2F982F0-EBFF-418F-9F4F-3FF30AFC8712}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{550F66C3-854B-4044-AEBC-B3D50672C34F}"/>
+    <hyperlink ref="J3" location="Inmueble!A1" display=" inmueble" xr:uid="{E8DD91DB-2BD0-4B7F-8DDA-48A46D50EE9B}"/>
+    <hyperlink ref="J4" location="Inmueble!A4" display="Inmueble!A4" xr:uid="{EBC9955F-78A0-400F-98CA-1FCECF2C85E3}"/>
+    <hyperlink ref="J5" location="Inmueble!A5" display="Inmueble!A5" xr:uid="{121C95BA-B893-405D-9ADA-5337FB17C0CD}"/>
+    <hyperlink ref="J6" location="Inmueble!A6" display="Inmueble!A6" xr:uid="{F997A330-62B5-4EF6-A1EF-68270FA85BE4}"/>
+    <hyperlink ref="J7" location="Inmueble!A7" display="Inmueble!A7" xr:uid="{AAF13589-8479-4A08-A2EF-E82ED3F46C9A}"/>
+    <hyperlink ref="J8" location="Inmueble!A8" display="Inmueble!A8" xr:uid="{CF098DF9-37E2-4DB2-A7EF-148E94AB7719}"/>
+    <hyperlink ref="J9" location="Inmueble!A9" display="Inmueble!A9" xr:uid="{72A8965C-5389-484E-9EC7-5EFC1D791CC1}"/>
+    <hyperlink ref="J10" location="Inmueble!A10" display="Inmueble!A10" xr:uid="{BB44AB1B-9A63-40F4-B4F7-959DE86E9F11}"/>
+    <hyperlink ref="J11" location="Inmueble!A11" display="Inmueble!A11" xr:uid="{F8E9E1FB-1044-4338-BCC0-D0CD7369EFCB}"/>
+    <hyperlink ref="J12" location="Inmueble!A12" display="Inmueble!A12" xr:uid="{8BC00B39-98DD-4EB1-87A0-5EE3392447A9}"/>
+    <hyperlink ref="J13" location="Inmueble!A13" display="Inmueble!A13" xr:uid="{AFE7760E-E4CE-4630-A70C-6AF68E99E17A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FFE3F-A8CD-45B1-9530-78EA1A9E6153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B60C0-3F33-48EA-8D4E-14B9836CEB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -606,9 +606,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -637,6 +634,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -667,8 +667,8 @@
       <sheetName val="Inmueble"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="E4" t="str">
@@ -1116,35 +1116,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="31" customFormat="1" ht="81" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" s="30" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="str">
+      <c r="C4" s="31" t="str">
         <f>Turno!$G$6</f>
         <v xml:space="preserve">Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. </v>
       </c>
-      <c r="D4" s="34" t="str">
+      <c r="D4" s="33" t="str">
         <f>Residente!$K$4</f>
         <v>Cédula de Ciudadanía-74564891</v>
       </c>
       <c r="E4" s="8" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>09/10/2024</v>
+        <v>13/10/2024</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -1205,17 +1205,17 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="32" t="str">
+      <c r="C5" s="31" t="str">
         <f>Turno!$G$9</f>
         <v xml:space="preserve">Turno 2-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 5:00:00 p. m. - 7:00:00 p. m. </v>
       </c>
-      <c r="D5" s="34" t="str">
+      <c r="D5" s="33" t="str">
         <f>Residente!$K$5</f>
         <v>Registro civil-16513516</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" ref="E5:E10" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>09/10/2024</v>
+        <v>13/10/2024</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>16</v>
@@ -1232,17 +1232,17 @@
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="32" t="str">
+      <c r="C6" s="31" t="str">
         <f>Turno!$G$13</f>
         <v xml:space="preserve">Turno 3-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 12:00:00 p. m. - 1:00:00 p. m. </v>
       </c>
-      <c r="D6" s="34" t="str">
+      <c r="D6" s="33" t="str">
         <f>Residente!$K$6</f>
         <v>Pasaporte-8552369</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>09/10/2024</v>
+        <v>13/10/2024</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>14</v>
@@ -1259,17 +1259,17 @@
       <c r="B7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="33" t="str">
+      <c r="C7" s="32" t="str">
         <f>Turno!$G$10</f>
         <v xml:space="preserve">Turno 3-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 7:00:00 p. m. - 9:00:00 p. m. </v>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="33" t="str">
         <f>Residente!K9</f>
         <v>Cédula de Ciudadanía-1034567890</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>09/10/2024</v>
+        <v>13/10/2024</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>14</v>
@@ -1286,17 +1286,17 @@
       <c r="B8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="33" t="str">
+      <c r="C8" s="32" t="str">
         <f>Turno!G12</f>
         <v xml:space="preserve">Turno 2-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="33" t="str">
         <f>Residente!K10</f>
         <v>Tarjeta de Identidad-900123456</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>09/10/2024</v>
+        <v>13/10/2024</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>14</v>
@@ -1313,17 +1313,17 @@
       <c r="B9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="32" t="str">
         <f>Turno!G6</f>
         <v xml:space="preserve">Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. </v>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="33" t="str">
         <f>Residente!K11</f>
         <v>Pasaporte-1045678901</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>09/10/2024</v>
+        <v>13/10/2024</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>16</v>
@@ -1340,17 +1340,17 @@
       <c r="B10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="33" t="str">
+      <c r="C10" s="32" t="str">
         <f>Turno!$G$8</f>
         <v xml:space="preserve">Turno 1-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 3:00:00 p. m. - 5:00:00 p. m. </v>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="33" t="str">
         <f>Residente!K13</f>
         <v>Cédula de Ciudadanía-1067890123</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>09/10/2024</v>
+        <v>13/10/2024</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>14</v>
@@ -1404,35 +1404,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="E4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>102</v>
       </c>
       <c r="G4" s="10" t="str">
@@ -1499,7 +1499,7 @@
       <c r="E5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>102</v>
       </c>
       <c r="G5" s="10" t="str">
@@ -1523,7 +1523,7 @@
       <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>102</v>
       </c>
       <c r="G6" s="10" t="str">
@@ -1547,7 +1547,7 @@
       <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>102</v>
       </c>
       <c r="G7" s="10" t="str">
@@ -1571,7 +1571,7 @@
       <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>103</v>
       </c>
       <c r="G8" s="10" t="str">
@@ -1595,7 +1595,7 @@
       <c r="E9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="35" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="10" t="str">
@@ -1619,7 +1619,7 @@
       <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>103</v>
       </c>
       <c r="G10" s="10" t="str">
@@ -1643,7 +1643,7 @@
       <c r="E11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="10" t="str">
@@ -1667,7 +1667,7 @@
       <c r="E12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>104</v>
       </c>
       <c r="G12" s="10" t="str">
@@ -1691,7 +1691,7 @@
       <c r="E13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="10" t="str">
@@ -1715,7 +1715,7 @@
       <c r="E14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G14" s="10" t="str">
@@ -1739,7 +1739,7 @@
       <c r="E15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="10" t="str">
@@ -1763,7 +1763,7 @@
       <c r="E16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G16" s="10" t="str">
@@ -1787,7 +1787,7 @@
       <c r="E17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G17" s="10" t="str">
@@ -1796,22 +1796,22 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="38">
         <v>15</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <v>0.375</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>107</v>
       </c>
       <c r="G18" s="10" t="str">
@@ -1820,22 +1820,22 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="38">
         <v>16</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="39">
         <v>0.375</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="39">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="10" t="str">
@@ -1844,22 +1844,22 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="A20" s="38">
         <v>17</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="39">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>0.45833333333333398</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>107</v>
       </c>
       <c r="G20" s="10" t="str">
@@ -1868,22 +1868,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+      <c r="A21" s="38">
         <v>18</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="39">
         <v>0.45833333333333398</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="39">
         <v>0.500000000000001</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>107</v>
       </c>
       <c r="G21" s="10" t="str">
@@ -1900,7 +1900,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="42" t="str">
+      <c r="G22" s="41" t="str">
         <f t="shared" ref="G22:G27" si="1">_xlfn.CONCAT(B22,"-",F22)</f>
         <v>-</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="42" t="str">
+      <c r="G23" s="41" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="42" t="str">
+      <c r="G24" s="41" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="42" t="str">
+      <c r="G25" s="41" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="42" t="str">
+      <c r="G26" s="41" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="42" t="str">
+      <c r="G27" s="41" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1986,10 +1986,10 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="43"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="43"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
@@ -2047,12 +2047,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2060,44 +2060,44 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:13" s="44" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       <c r="I4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="46" t="str">
+      <c r="J4" s="45" t="str">
         <f>[1]Inmueble!E4</f>
         <v>Apartamento102 - Torre1 - Forest apartamentos</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="I5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="46" t="str">
+      <c r="J5" s="45" t="str">
         <f>[1]Inmueble!E5</f>
         <v>Casa10 - Bloque1 - Forest apartamentos</v>
       </c>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Reserva Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B60C0-3F33-48EA-8D4E-14B9836CEB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CFFC7C-C5C9-4E03-82A0-BB5540DADFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{37DFAE61-0D86-49EA-8370-168CB72B907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -1049,13 +1049,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1101,21 +1101,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5276C67-4ACF-4F34-ACBA-8F9695F1FA3D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="130.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="130.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.5546875" customWidth="1"/>
     <col min="7" max="7" width="223" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="30" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>1</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. -Cédula de Ciudadanía-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>Turno 2-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 5:00:00 p. m. - 7:00:00 p. m. -Registro civil-16513516</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>Turno 3-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 12:00:00 p. m. - 1:00:00 p. m. -Pasaporte-8552369</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>4</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>Turno 3-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 7:00:00 p. m. - 9:00:00 p. m. -Cédula de Ciudadanía-1034567890</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>5</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>Turno 2-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. -Tarjeta de Identidad-900123456</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. -Pasaporte-1045678901</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>7</v>
       </c>
@@ -1393,17 +1393,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="133.7109375" customWidth="1"/>
-    <col min="7" max="7" width="140.7109375" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="133.6640625" customWidth="1"/>
+    <col min="7" max="7" width="140.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v xml:space="preserve">Turno 1-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 6:00:00 a. m. - 8:00:00 a. m. </v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v xml:space="preserve">Turno 2-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 8:00:00 a. m. - 10:00:00 a. m. </v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v xml:space="preserve">Turno 3-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 10:00:00 a. m. - 12:00:00 p. m. </v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v xml:space="preserve">Turno 4-Piscina-Forest apartamentos - 18  septiembre 2024 6:00:00 a. m.  hasta - 18  septiembre 2024 2:00:00 p. m. - 1:00:00 p. m. - 2:00:00 p. m. </v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v xml:space="preserve">Turno 1-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 3:00:00 p. m. - 5:00:00 p. m. </v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v xml:space="preserve">Turno 2-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 5:00:00 p. m. - 7:00:00 p. m. </v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v xml:space="preserve">Turno 3-Gimnasio-Forest apartamentos - 18  septiembre 2024 3:00:00 p. m.  hasta - 18  septiembre 2024 9:00:00 p. m. - 7:00:00 p. m. - 9:00:00 p. m. </v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v xml:space="preserve">Turno 1-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 10:00:00 p. m. - 11:00:00 p. m. </v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v xml:space="preserve">Turno 2-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v xml:space="preserve">Turno 3-piscinaAdultos-Natural - 20  septiembre 2024 10:00:00 a. m.  hasta - 20  septiembre 2024 1:00:00 p. m. - 12:00:00 p. m. - 1:00:00 p. m. </v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>11</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v xml:space="preserve">Turno 1-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 8:00:00 a. m. - 9:00:00 a. m. </v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>12</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v xml:space="preserve">Turno 2-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 9:00:00 a. m. - 10:00:00 a. m. </v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>13</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v xml:space="preserve">Turno 3-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 10:00:00 a. m. - 11:00:00 a. m. </v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>14</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v xml:space="preserve">Turno 4-Salón de Eventos-Riogrande - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>15</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v xml:space="preserve">Turno 1-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 8:00:00 a. m. - 9:00:00 a. m. </v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>16</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v xml:space="preserve">Turno 2-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 9:00:00 a. m. - 10:00:00 a. m. </v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>17</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v xml:space="preserve">Turno 3-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 10:00:00 a. m. - 11:00:00 a. m. </v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>18</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v xml:space="preserve">Turno 4-Cancha de Fútbol-Bolivar - 18  septiembre 2024 8:00:00 a. m.  hasta - 18  septiembre 2024 12:00:00 p. m. - 11:00:00 a. m. - 12:00:00 p. m. </v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>19</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>20</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>21</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>22</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>23</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>24</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>25</v>
       </c>
@@ -1985,13 +1985,13 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>107</v>
       </c>
@@ -2032,21 +2032,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.5546875" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="44" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="44" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>28</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>example@example.com</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v xml:space="preserve">ejemplo@jueves.com </v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>andresjobpk@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>alejandro.perez90@mail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>maria.gomez85@mail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>juan.rodriguez95@mail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>camila.torres00@mail.com</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>andres.garcia92@mail.com</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>laura.martinez93@mail.com</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
